--- a/aug_pc_result/p_ensemble.xlsx
+++ b/aug_pc_result/p_ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B647775-2099-424F-9899-D41D2F13E3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1121C280-5647-420F-B13F-20774527596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="824">
   <si>
     <t>noise</t>
   </si>
@@ -2101,6 +2101,402 @@
   </si>
   <si>
     <t>21.589(13.742)</t>
+  </si>
+  <si>
+    <t>2.516(1.297)</t>
+  </si>
+  <si>
+    <t>4.281(2.164)</t>
+  </si>
+  <si>
+    <t>0.105(0.054)</t>
+  </si>
+  <si>
+    <t>0.178(0.09)</t>
+  </si>
+  <si>
+    <t>0.904(0.069)</t>
+  </si>
+  <si>
+    <t>11.75(0.891)</t>
+  </si>
+  <si>
+    <t>0.953(0.7)</t>
+  </si>
+  <si>
+    <t>1.25(0.891)</t>
+  </si>
+  <si>
+    <t>1211.047(0.7)</t>
+  </si>
+  <si>
+    <t>0.928(0.051)</t>
+  </si>
+  <si>
+    <t>0.914(0.045)</t>
+  </si>
+  <si>
+    <t>0.237(0.008)</t>
+  </si>
+  <si>
+    <t>3.875(1.363)</t>
+  </si>
+  <si>
+    <t>6.531(2.288)</t>
+  </si>
+  <si>
+    <t>0.161(0.057)</t>
+  </si>
+  <si>
+    <t>0.272(0.095)</t>
+  </si>
+  <si>
+    <t>0.748(0.088)</t>
+  </si>
+  <si>
+    <t>9.719(1.147)</t>
+  </si>
+  <si>
+    <t>3.281(1.147)</t>
+  </si>
+  <si>
+    <t>1211.719(0.519)</t>
+  </si>
+  <si>
+    <t>0.975(0.047)</t>
+  </si>
+  <si>
+    <t>0.843(0.06)</t>
+  </si>
+  <si>
+    <t>0.238(0.009)</t>
+  </si>
+  <si>
+    <t>2.266(0.512)</t>
+  </si>
+  <si>
+    <t>4.531(1.023)</t>
+  </si>
+  <si>
+    <t>0.094(0.021)</t>
+  </si>
+  <si>
+    <t>0.189(0.043)</t>
+  </si>
+  <si>
+    <t>1209.734(0.512)</t>
+  </si>
+  <si>
+    <t>0.853(0.028)</t>
+  </si>
+  <si>
+    <t>0.92(0.017)</t>
+  </si>
+  <si>
+    <t>0.29(0.398)</t>
+  </si>
+  <si>
+    <t>1.5(0.943)</t>
+  </si>
+  <si>
+    <t>3.0(1.886)</t>
+  </si>
+  <si>
+    <t>0.062(0.039)</t>
+  </si>
+  <si>
+    <t>0.125(0.079)</t>
+  </si>
+  <si>
+    <t>0.941(0.051)</t>
+  </si>
+  <si>
+    <t>12.234(0.66)</t>
+  </si>
+  <si>
+    <t>0.734(0.672)</t>
+  </si>
+  <si>
+    <t>0.766(0.66)</t>
+  </si>
+  <si>
+    <t>1211.266(0.672)</t>
+  </si>
+  <si>
+    <t>0.946(0.048)</t>
+  </si>
+  <si>
+    <t>0.942(0.036)</t>
+  </si>
+  <si>
+    <t>0.238(0.012)</t>
+  </si>
+  <si>
+    <t>2.484(1.26)</t>
+  </si>
+  <si>
+    <t>4.188(2.038)</t>
+  </si>
+  <si>
+    <t>0.104(0.052)</t>
+  </si>
+  <si>
+    <t>0.174(0.085)</t>
+  </si>
+  <si>
+    <t>0.911(0.062)</t>
+  </si>
+  <si>
+    <t>11.844(0.801)</t>
+  </si>
+  <si>
+    <t>0.969(0.689)</t>
+  </si>
+  <si>
+    <t>1.156(0.801)</t>
+  </si>
+  <si>
+    <t>1211.031(0.689)</t>
+  </si>
+  <si>
+    <t>0.927(0.05)</t>
+  </si>
+  <si>
+    <t>0.917(0.042)</t>
+  </si>
+  <si>
+    <t>0.243(0.009)</t>
+  </si>
+  <si>
+    <t>3.859(1.308)</t>
+  </si>
+  <si>
+    <t>6.531(2.204)</t>
+  </si>
+  <si>
+    <t>0.161(0.054)</t>
+  </si>
+  <si>
+    <t>0.272(0.092)</t>
+  </si>
+  <si>
+    <t>0.75(0.086)</t>
+  </si>
+  <si>
+    <t>9.75(1.113)</t>
+  </si>
+  <si>
+    <t>3.25(1.113)</t>
+  </si>
+  <si>
+    <t>1211.672(0.536)</t>
+  </si>
+  <si>
+    <t>0.97(0.048)</t>
+  </si>
+  <si>
+    <t>0.843(0.058)</t>
+  </si>
+  <si>
+    <t>0.241(0.01)</t>
+  </si>
+  <si>
+    <t>2.266(0.542)</t>
+  </si>
+  <si>
+    <t>4.531(1.083)</t>
+  </si>
+  <si>
+    <t>0.094(0.023)</t>
+  </si>
+  <si>
+    <t>0.189(0.045)</t>
+  </si>
+  <si>
+    <t>0.999(0.01)</t>
+  </si>
+  <si>
+    <t>12.984(0.125)</t>
+  </si>
+  <si>
+    <t>2.25(0.504)</t>
+  </si>
+  <si>
+    <t>1209.75(0.504)</t>
+  </si>
+  <si>
+    <t>0.92(0.018)</t>
+  </si>
+  <si>
+    <t>0.285(0.396)</t>
+  </si>
+  <si>
+    <t>1.484(0.943)</t>
+  </si>
+  <si>
+    <t>2.969(1.885)</t>
+  </si>
+  <si>
+    <t>0.124(0.079)</t>
+  </si>
+  <si>
+    <t>0.947(0.053)</t>
+  </si>
+  <si>
+    <t>12.312(0.687)</t>
+  </si>
+  <si>
+    <t>0.797(0.717)</t>
+  </si>
+  <si>
+    <t>0.688(0.687)</t>
+  </si>
+  <si>
+    <t>1211.203(0.717)</t>
+  </si>
+  <si>
+    <t>0.942(0.05)</t>
+  </si>
+  <si>
+    <t>0.943(0.036)</t>
+  </si>
+  <si>
+    <t>0.437(1.109)</t>
+  </si>
+  <si>
+    <t>2.516(1.285)</t>
+  </si>
+  <si>
+    <t>4.219(2.051)</t>
+  </si>
+  <si>
+    <t>0.176(0.085)</t>
+  </si>
+  <si>
+    <t>0.907(0.066)</t>
+  </si>
+  <si>
+    <t>11.797(0.858)</t>
+  </si>
+  <si>
+    <t>0.938(0.687)</t>
+  </si>
+  <si>
+    <t>1.203(0.858)</t>
+  </si>
+  <si>
+    <t>1211.062(0.687)</t>
+  </si>
+  <si>
+    <t>0.929(0.05)</t>
+  </si>
+  <si>
+    <t>0.916(0.043)</t>
+  </si>
+  <si>
+    <t>0.243(0.008)</t>
+  </si>
+  <si>
+    <t>3.891(1.438)</t>
+  </si>
+  <si>
+    <t>6.625(2.414)</t>
+  </si>
+  <si>
+    <t>0.162(0.06)</t>
+  </si>
+  <si>
+    <t>0.276(0.101)</t>
+  </si>
+  <si>
+    <t>0.751(0.093)</t>
+  </si>
+  <si>
+    <t>9.766(1.205)</t>
+  </si>
+  <si>
+    <t>0.375(0.577)</t>
+  </si>
+  <si>
+    <t>3.234(1.205)</t>
+  </si>
+  <si>
+    <t>1211.625(0.577)</t>
+  </si>
+  <si>
+    <t>0.966(0.051)</t>
+  </si>
+  <si>
+    <t>0.841(0.062)</t>
+  </si>
+  <si>
+    <t>2.266(0.718)</t>
+  </si>
+  <si>
+    <t>4.5(1.38)</t>
+  </si>
+  <si>
+    <t>0.094(0.03)</t>
+  </si>
+  <si>
+    <t>0.188(0.058)</t>
+  </si>
+  <si>
+    <t>0.993(0.026)</t>
+  </si>
+  <si>
+    <t>12.906(0.344)</t>
+  </si>
+  <si>
+    <t>2.156(0.597)</t>
+  </si>
+  <si>
+    <t>0.094(0.344)</t>
+  </si>
+  <si>
+    <t>1209.844(0.597)</t>
+  </si>
+  <si>
+    <t>0.858(0.036)</t>
+  </si>
+  <si>
+    <t>0.92(0.024)</t>
+  </si>
+  <si>
+    <t>0.241(0.008)</t>
+  </si>
+  <si>
+    <t>1.688(1.052)</t>
+  </si>
+  <si>
+    <t>3.344(2.049)</t>
+  </si>
+  <si>
+    <t>0.07(0.044)</t>
+  </si>
+  <si>
+    <t>0.139(0.085)</t>
+  </si>
+  <si>
+    <t>0.94(0.057)</t>
+  </si>
+  <si>
+    <t>12.219(0.745)</t>
+  </si>
+  <si>
+    <t>0.891(0.737)</t>
+  </si>
+  <si>
+    <t>0.781(0.745)</t>
+  </si>
+  <si>
+    <t>1211.109(0.737)</t>
+  </si>
+  <si>
+    <t>0.935(0.052)</t>
+  </si>
+  <si>
+    <t>0.936(0.04)</t>
   </si>
 </sst>
 </file>
@@ -2453,12 +2849,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AC69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomLeft" activeCell="AA66" sqref="AA66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3832,7 +4228,7 @@
       </c>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3916,7 +4312,7 @@
       </c>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -4000,7 +4396,7 @@
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -4084,7 +4480,7 @@
       </c>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>64</v>
       </c>
@@ -4168,7 +4564,7 @@
       </c>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -4252,7 +4648,7 @@
       </c>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -4338,7 +4734,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -4424,7 +4820,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -4510,7 +4906,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -4596,7 +4992,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -4682,7 +5078,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -4768,7 +5164,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -4854,7 +5250,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -4940,7 +5336,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -5025,10 +5421,8 @@
       <c r="AB30" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
@@ -5113,10 +5507,8 @@
       <c r="AB31" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -5201,10 +5593,8 @@
       <c r="AB32" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -5289,10 +5679,8 @@
       <c r="AB33" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>27</v>
       </c>
@@ -5376,7 +5764,7 @@
       </c>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -5460,7 +5848,7 @@
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -5544,7 +5932,7 @@
       </c>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -5628,7 +6016,7 @@
       </c>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
@@ -5712,7 +6100,7 @@
       </c>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
@@ -5796,7 +6184,7 @@
       </c>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -5880,7 +6268,7 @@
       </c>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -5964,7 +6352,7 @@
       </c>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -6048,7 +6436,7 @@
       </c>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -6132,7 +6520,7 @@
       </c>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -6216,7 +6604,7 @@
       </c>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -6300,7 +6688,7 @@
       </c>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>27</v>
       </c>
@@ -6384,7 +6772,7 @@
       </c>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>27</v>
       </c>
@@ -6468,7 +6856,7 @@
       </c>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -6552,7 +6940,7 @@
       </c>
       <c r="AB48" s="2"/>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -6636,7 +7024,7 @@
       </c>
       <c r="AB49" s="2"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -6720,7 +7108,7 @@
       </c>
       <c r="AB50" s="2"/>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>27</v>
       </c>
@@ -6804,7 +7192,7 @@
       </c>
       <c r="AB51" s="2"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -6888,7 +7276,7 @@
       </c>
       <c r="AB52" s="2"/>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -6972,7 +7360,7 @@
       </c>
       <c r="AB53" s="2"/>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
@@ -6989,7 +7377,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>30</v>
@@ -6998,55 +7386,55 @@
         <v>8888</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>467</v>
+        <v>692</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>468</v>
+        <v>693</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>469</v>
+        <v>694</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>470</v>
+        <v>695</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>471</v>
+        <v>696</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>236</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>472</v>
+        <v>697</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>473</v>
+        <v>698</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>474</v>
+        <v>699</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>475</v>
+        <v>700</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>476</v>
+        <v>701</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>471</v>
+        <v>696</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>477</v>
+        <v>702</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>478</v>
+        <v>282</v>
       </c>
       <c r="W54" s="2" t="s">
-        <v>479</v>
+        <v>703</v>
       </c>
       <c r="X54" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>48</v>
@@ -7054,9 +7442,11 @@
       <c r="AA54" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB54" s="2"/>
+      <c r="AB54" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>27</v>
       </c>
@@ -7073,7 +7463,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>30</v>
@@ -7082,55 +7472,55 @@
         <v>8888</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>480</v>
+        <v>704</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>481</v>
+        <v>705</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>482</v>
+        <v>706</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>483</v>
+        <v>707</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>484</v>
+        <v>708</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>485</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>486</v>
+        <v>709</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>487</v>
+        <v>183</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>488</v>
+        <v>710</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>489</v>
+        <v>711</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>490</v>
+        <v>712</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>484</v>
+        <v>708</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>492</v>
+        <v>243</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>493</v>
+        <v>714</v>
       </c>
       <c r="X55" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y55" s="2" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="Z55" s="2" t="s">
         <v>48</v>
@@ -7138,9 +7528,11 @@
       <c r="AA55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB55" s="2"/>
+      <c r="AB55" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -7157,7 +7549,7 @@
         <v>50</v>
       </c>
       <c r="F56" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>30</v>
@@ -7166,55 +7558,55 @@
         <v>8888</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>494</v>
+        <v>715</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>495</v>
+        <v>716</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>496</v>
+        <v>717</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>497</v>
+        <v>718</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>501</v>
+        <v>715</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>502</v>
+        <v>98</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>503</v>
+        <v>719</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>504</v>
+        <v>720</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>498</v>
+        <v>193</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>505</v>
+        <v>721</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>506</v>
+        <v>370</v>
       </c>
       <c r="W56" s="2" t="s">
-        <v>507</v>
+        <v>722</v>
       </c>
       <c r="X56" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>48</v>
@@ -7222,9 +7614,11 @@
       <c r="AA56" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB56" s="2"/>
+      <c r="AB56" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -7241,7 +7635,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>30</v>
@@ -7250,55 +7644,55 @@
         <v>8888</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>508</v>
+        <v>723</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>509</v>
+        <v>724</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>510</v>
+        <v>725</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>511</v>
+        <v>726</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>512</v>
+        <v>727</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>236</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>513</v>
+        <v>728</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>514</v>
+        <v>729</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>515</v>
+        <v>730</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>516</v>
+        <v>731</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>517</v>
+        <v>732</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>512</v>
+        <v>727</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>518</v>
+        <v>733</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>519</v>
+        <v>382</v>
       </c>
       <c r="W57" s="2" t="s">
-        <v>520</v>
+        <v>734</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y57" s="2" t="s">
-        <v>46</v>
+        <v>521</v>
       </c>
       <c r="Z57" s="2" t="s">
         <v>48</v>
@@ -7306,7 +7700,1037 @@
       <c r="AA57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AB57" s="2"/>
+      <c r="AB57" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2">
+        <v>200</v>
+      </c>
+      <c r="E58" s="2">
+        <v>50</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="2">
+        <v>200</v>
+      </c>
+      <c r="E59" s="2">
+        <v>50</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="2">
+        <v>200</v>
+      </c>
+      <c r="E60" s="2">
+        <v>50</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="2">
+        <v>200</v>
+      </c>
+      <c r="E61" s="2">
+        <v>50</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="2">
+        <v>200</v>
+      </c>
+      <c r="E62" s="2">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC62" s="2"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="2">
+        <v>200</v>
+      </c>
+      <c r="E63" s="2">
+        <v>50</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H63" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC63" s="2"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="2">
+        <v>200</v>
+      </c>
+      <c r="E64" s="2">
+        <v>50</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC64" s="2"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="2">
+        <v>200</v>
+      </c>
+      <c r="E65" s="2">
+        <v>50</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H65" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC65" s="2"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="2">
+        <v>200</v>
+      </c>
+      <c r="E66" s="2">
+        <v>50</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="2">
+        <v>200</v>
+      </c>
+      <c r="E67" s="2">
+        <v>50</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H67" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB67" s="2"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="2">
+        <v>200</v>
+      </c>
+      <c r="E68" s="2">
+        <v>50</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB68" s="2"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="2">
+        <v>200</v>
+      </c>
+      <c r="E69" s="2">
+        <v>50</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB69" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA41">

--- a/aug_pc_result/p_ensemble.xlsx
+++ b/aug_pc_result/p_ensemble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CausalLearning\code\aug_pc_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1121C280-5647-420F-B13F-20774527596D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22398F66-81F9-4615-9789-225DA91CD5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="1134">
   <si>
     <t>noise</t>
   </si>
@@ -2497,6 +2497,936 @@
   </si>
   <si>
     <t>0.936(0.04)</t>
+  </si>
+  <si>
+    <t>68.188(5.288)</t>
+  </si>
+  <si>
+    <t>76.203(6.922)</t>
+  </si>
+  <si>
+    <t>0.733(0.057)</t>
+  </si>
+  <si>
+    <t>0.819(0.074)</t>
+  </si>
+  <si>
+    <t>0.452(0.04)</t>
+  </si>
+  <si>
+    <t>0.007(0.002)</t>
+  </si>
+  <si>
+    <t>37.484(3.309)</t>
+  </si>
+  <si>
+    <t>8.0(2.39)</t>
+  </si>
+  <si>
+    <t>45.516(3.309)</t>
+  </si>
+  <si>
+    <t>1134.0(2.39)</t>
+  </si>
+  <si>
+    <t>0.825(0.046)</t>
+  </si>
+  <si>
+    <t>0.583(0.038)</t>
+  </si>
+  <si>
+    <t>0.956(0.003)</t>
+  </si>
+  <si>
+    <t>4715.017(330.031)</t>
+  </si>
+  <si>
+    <t>79.812(4.397)</t>
+  </si>
+  <si>
+    <t>90.859(6.476)</t>
+  </si>
+  <si>
+    <t>0.858(0.047)</t>
+  </si>
+  <si>
+    <t>0.977(0.07)</t>
+  </si>
+  <si>
+    <t>0.225(0.04)</t>
+  </si>
+  <si>
+    <t>0.008(0.003)</t>
+  </si>
+  <si>
+    <t>18.703(3.332)</t>
+  </si>
+  <si>
+    <t>9.109(2.917)</t>
+  </si>
+  <si>
+    <t>64.297(3.332)</t>
+  </si>
+  <si>
+    <t>1132.891(2.917)</t>
+  </si>
+  <si>
+    <t>0.675(0.084)</t>
+  </si>
+  <si>
+    <t>0.336(0.051)</t>
+  </si>
+  <si>
+    <t>0.94(0.004)</t>
+  </si>
+  <si>
+    <t>8481.901(2746.601)</t>
+  </si>
+  <si>
+    <t>58.375(6.465)</t>
+  </si>
+  <si>
+    <t>66.797(7.515)</t>
+  </si>
+  <si>
+    <t>0.628(0.07)</t>
+  </si>
+  <si>
+    <t>0.718(0.081)</t>
+  </si>
+  <si>
+    <t>0.607(0.043)</t>
+  </si>
+  <si>
+    <t>0.009(0.003)</t>
+  </si>
+  <si>
+    <t>50.375(3.552)</t>
+  </si>
+  <si>
+    <t>10.281(2.903)</t>
+  </si>
+  <si>
+    <t>32.625(3.552)</t>
+  </si>
+  <si>
+    <t>1131.719(2.903)</t>
+  </si>
+  <si>
+    <t>0.831(0.044)</t>
+  </si>
+  <si>
+    <t>0.701(0.039)</t>
+  </si>
+  <si>
+    <t>0.965(0.004)</t>
+  </si>
+  <si>
+    <t>5059.588(331.305)</t>
+  </si>
+  <si>
+    <t>66.484(5.407)</t>
+  </si>
+  <si>
+    <t>73.672(7.103)</t>
+  </si>
+  <si>
+    <t>0.715(0.058)</t>
+  </si>
+  <si>
+    <t>0.792(0.076)</t>
+  </si>
+  <si>
+    <t>0.489(0.043)</t>
+  </si>
+  <si>
+    <t>40.547(3.577)</t>
+  </si>
+  <si>
+    <t>9.922(2.972)</t>
+  </si>
+  <si>
+    <t>42.453(3.577)</t>
+  </si>
+  <si>
+    <t>1132.078(2.972)</t>
+  </si>
+  <si>
+    <t>0.805(0.049)</t>
+  </si>
+  <si>
+    <t>0.607(0.039)</t>
+  </si>
+  <si>
+    <t>0.957(0.004)</t>
+  </si>
+  <si>
+    <t>4597.594(219.266)</t>
+  </si>
+  <si>
+    <t>68.641(5.144)</t>
+  </si>
+  <si>
+    <t>76.312(6.595)</t>
+  </si>
+  <si>
+    <t>0.738(0.055)</t>
+  </si>
+  <si>
+    <t>0.821(0.071)</t>
+  </si>
+  <si>
+    <t>0.435(0.041)</t>
+  </si>
+  <si>
+    <t>0.006(0.002)</t>
+  </si>
+  <si>
+    <t>36.109(3.395)</t>
+  </si>
+  <si>
+    <t>6.781(2.074)</t>
+  </si>
+  <si>
+    <t>46.891(3.395)</t>
+  </si>
+  <si>
+    <t>1135.219(2.074)</t>
+  </si>
+  <si>
+    <t>0.843(0.043)</t>
+  </si>
+  <si>
+    <t>0.573(0.039)</t>
+  </si>
+  <si>
+    <t>7961.988(597.457)</t>
+  </si>
+  <si>
+    <t>79.359(4.292)</t>
+  </si>
+  <si>
+    <t>90.25(5.864)</t>
+  </si>
+  <si>
+    <t>0.853(0.046)</t>
+  </si>
+  <si>
+    <t>0.97(0.063)</t>
+  </si>
+  <si>
+    <t>0.221(0.04)</t>
+  </si>
+  <si>
+    <t>18.359(3.316)</t>
+  </si>
+  <si>
+    <t>8.531(2.684)</t>
+  </si>
+  <si>
+    <t>64.641(3.316)</t>
+  </si>
+  <si>
+    <t>1133.469(2.684)</t>
+  </si>
+  <si>
+    <t>0.684(0.083)</t>
+  </si>
+  <si>
+    <t>0.333(0.052)</t>
+  </si>
+  <si>
+    <t>10774.395(2595.277)</t>
+  </si>
+  <si>
+    <t>60.188(6.759)</t>
+  </si>
+  <si>
+    <t>68.531(8.051)</t>
+  </si>
+  <si>
+    <t>0.647(0.073)</t>
+  </si>
+  <si>
+    <t>0.737(0.087)</t>
+  </si>
+  <si>
+    <t>0.59(0.044)</t>
+  </si>
+  <si>
+    <t>48.953(3.649)</t>
+  </si>
+  <si>
+    <t>9.734(2.885)</t>
+  </si>
+  <si>
+    <t>34.047(3.649)</t>
+  </si>
+  <si>
+    <t>1132.266(2.885)</t>
+  </si>
+  <si>
+    <t>0.835(0.046)</t>
+  </si>
+  <si>
+    <t>0.691(0.041)</t>
+  </si>
+  <si>
+    <t>0.964(0.004)</t>
+  </si>
+  <si>
+    <t>8323.324(967.523)</t>
+  </si>
+  <si>
+    <t>66.672(4.857)</t>
+  </si>
+  <si>
+    <t>73.938(6.261)</t>
+  </si>
+  <si>
+    <t>0.717(0.052)</t>
+  </si>
+  <si>
+    <t>0.795(0.067)</t>
+  </si>
+  <si>
+    <t>0.483(0.042)</t>
+  </si>
+  <si>
+    <t>0.008(0.002)</t>
+  </si>
+  <si>
+    <t>40.062(3.473)</t>
+  </si>
+  <si>
+    <t>9.328(2.761)</t>
+  </si>
+  <si>
+    <t>42.938(3.473)</t>
+  </si>
+  <si>
+    <t>1132.672(2.761)</t>
+  </si>
+  <si>
+    <t>0.813(0.046)</t>
+  </si>
+  <si>
+    <t>0.605(0.038)</t>
+  </si>
+  <si>
+    <t>0.957(0.003)</t>
+  </si>
+  <si>
+    <t>7895.969(466.873)</t>
+  </si>
+  <si>
+    <t>68.531(5.058)</t>
+  </si>
+  <si>
+    <t>76.484(6.834)</t>
+  </si>
+  <si>
+    <t>0.737(0.054)</t>
+  </si>
+  <si>
+    <t>0.822(0.073)</t>
+  </si>
+  <si>
+    <t>0.453(0.039)</t>
+  </si>
+  <si>
+    <t>37.594(3.26)</t>
+  </si>
+  <si>
+    <t>8.891(2.476)</t>
+  </si>
+  <si>
+    <t>45.406(3.26)</t>
+  </si>
+  <si>
+    <t>1133.109(2.476)</t>
+  </si>
+  <si>
+    <t>0.81(0.045)</t>
+  </si>
+  <si>
+    <t>0.58(0.037)</t>
+  </si>
+  <si>
+    <t>7635.232(596.975)</t>
+  </si>
+  <si>
+    <t>80.062(4.461)</t>
+  </si>
+  <si>
+    <t>90.828(6.038)</t>
+  </si>
+  <si>
+    <t>0.861(0.048)</t>
+  </si>
+  <si>
+    <t>0.977(0.065)</t>
+  </si>
+  <si>
+    <t>0.221(0.038)</t>
+  </si>
+  <si>
+    <t>18.375(3.114)</t>
+  </si>
+  <si>
+    <t>9.094(3.11)</t>
+  </si>
+  <si>
+    <t>64.625(3.114)</t>
+  </si>
+  <si>
+    <t>1132.906(3.11)</t>
+  </si>
+  <si>
+    <t>0.673(0.087)</t>
+  </si>
+  <si>
+    <t>0.332(0.049)</t>
+  </si>
+  <si>
+    <t>11083.335(2563.913)</t>
+  </si>
+  <si>
+    <t>59.438(6.223)</t>
+  </si>
+  <si>
+    <t>68.062(7.75)</t>
+  </si>
+  <si>
+    <t>0.639(0.067)</t>
+  </si>
+  <si>
+    <t>0.732(0.083)</t>
+  </si>
+  <si>
+    <t>0.597(0.042)</t>
+  </si>
+  <si>
+    <t>0.009(0.002)</t>
+  </si>
+  <si>
+    <t>49.547(3.505)</t>
+  </si>
+  <si>
+    <t>9.844(2.841)</t>
+  </si>
+  <si>
+    <t>33.453(3.505)</t>
+  </si>
+  <si>
+    <t>1132.156(2.841)</t>
+  </si>
+  <si>
+    <t>0.835(0.045)</t>
+  </si>
+  <si>
+    <t>0.696(0.039)</t>
+  </si>
+  <si>
+    <t>8399.098(1290.76)</t>
+  </si>
+  <si>
+    <t>67.703(5.69)</t>
+  </si>
+  <si>
+    <t>75.422(7.498)</t>
+  </si>
+  <si>
+    <t>0.728(0.061)</t>
+  </si>
+  <si>
+    <t>0.811(0.081)</t>
+  </si>
+  <si>
+    <t>0.479(0.04)</t>
+  </si>
+  <si>
+    <t>39.719(3.359)</t>
+  </si>
+  <si>
+    <t>9.984(2.898)</t>
+  </si>
+  <si>
+    <t>43.281(3.359)</t>
+  </si>
+  <si>
+    <t>1132.016(2.898)</t>
+  </si>
+  <si>
+    <t>0.801(0.049)</t>
+  </si>
+  <si>
+    <t>0.598(0.039)</t>
+  </si>
+  <si>
+    <t>7828.983(592.304)</t>
+  </si>
+  <si>
+    <t>71.0(5.515)</t>
+  </si>
+  <si>
+    <t>80.141(7.144)</t>
+  </si>
+  <si>
+    <t>0.763(0.059)</t>
+  </si>
+  <si>
+    <t>0.862(0.077)</t>
+  </si>
+  <si>
+    <t>0.432(0.044)</t>
+  </si>
+  <si>
+    <t>35.828(3.658)</t>
+  </si>
+  <si>
+    <t>9.906(2.724)</t>
+  </si>
+  <si>
+    <t>47.172(3.658)</t>
+  </si>
+  <si>
+    <t>1132.094(2.724)</t>
+  </si>
+  <si>
+    <t>0.784(0.051)</t>
+  </si>
+  <si>
+    <t>0.556(0.044)</t>
+  </si>
+  <si>
+    <t>0.953(0.004)</t>
+  </si>
+  <si>
+    <t>0.927(0.141)</t>
+  </si>
+  <si>
+    <t>85.453(4.925)</t>
+  </si>
+  <si>
+    <t>98.875(7.181)</t>
+  </si>
+  <si>
+    <t>0.919(0.053)</t>
+  </si>
+  <si>
+    <t>1.063(0.077)</t>
+  </si>
+  <si>
+    <t>0.203(0.039)</t>
+  </si>
+  <si>
+    <t>0.012(0.003)</t>
+  </si>
+  <si>
+    <t>16.812(3.221)</t>
+  </si>
+  <si>
+    <t>13.781(3.283)</t>
+  </si>
+  <si>
+    <t>66.188(3.221)</t>
+  </si>
+  <si>
+    <t>1128.219(3.283)</t>
+  </si>
+  <si>
+    <t>0.551(0.085)</t>
+  </si>
+  <si>
+    <t>0.295(0.051)</t>
+  </si>
+  <si>
+    <t>0.935(0.004)</t>
+  </si>
+  <si>
+    <t>1.006(0.189)</t>
+  </si>
+  <si>
+    <t>69.5(6.738)</t>
+  </si>
+  <si>
+    <t>79.562(8.47)</t>
+  </si>
+  <si>
+    <t>0.747(0.072)</t>
+  </si>
+  <si>
+    <t>0.856(0.091)</t>
+  </si>
+  <si>
+    <t>0.48(0.047)</t>
+  </si>
+  <si>
+    <t>0.011(0.003)</t>
+  </si>
+  <si>
+    <t>39.828(3.894)</t>
+  </si>
+  <si>
+    <t>12.219(3.078)</t>
+  </si>
+  <si>
+    <t>43.172(3.894)</t>
+  </si>
+  <si>
+    <t>1129.781(3.078)</t>
+  </si>
+  <si>
+    <t>0.766(0.056)</t>
+  </si>
+  <si>
+    <t>0.589(0.048)</t>
+  </si>
+  <si>
+    <t>0.955(0.005)</t>
+  </si>
+  <si>
+    <t>0.856(0.167)</t>
+  </si>
+  <si>
+    <t>71.562(4.966)</t>
+  </si>
+  <si>
+    <t>80.703(6.909)</t>
+  </si>
+  <si>
+    <t>0.769(0.053)</t>
+  </si>
+  <si>
+    <t>0.868(0.074)</t>
+  </si>
+  <si>
+    <t>0.43(0.039)</t>
+  </si>
+  <si>
+    <t>0.01(0.003)</t>
+  </si>
+  <si>
+    <t>35.672(3.197)</t>
+  </si>
+  <si>
+    <t>11.297(3.079)</t>
+  </si>
+  <si>
+    <t>47.328(3.197)</t>
+  </si>
+  <si>
+    <t>1130.703(3.079)</t>
+  </si>
+  <si>
+    <t>0.761(0.052)</t>
+  </si>
+  <si>
+    <t>0.548(0.039)</t>
+  </si>
+  <si>
+    <t>0.952(0.004)</t>
+  </si>
+  <si>
+    <t>0.771(0.185)</t>
+  </si>
+  <si>
+    <t>82.109(0.779)</t>
+  </si>
+  <si>
+    <t>91.219(1.558)</t>
+  </si>
+  <si>
+    <t>0.883(0.008)</t>
+  </si>
+  <si>
+    <t>0.981(0.017)</t>
+  </si>
+  <si>
+    <t>0.013(0.011)</t>
+  </si>
+  <si>
+    <t>1.062(0.889)</t>
+  </si>
+  <si>
+    <t>81.938(0.889)</t>
+  </si>
+  <si>
+    <t>1142.0(0.0)</t>
+  </si>
+  <si>
+    <t>0.025(0.021)</t>
+  </si>
+  <si>
+    <t>0.933(0.001)</t>
+  </si>
+  <si>
+    <t>26359.495(494.585)</t>
+  </si>
+  <si>
+    <t>82.828(0.38)</t>
+  </si>
+  <si>
+    <t>92.656(0.761)</t>
+  </si>
+  <si>
+    <t>0.891(0.004)</t>
+  </si>
+  <si>
+    <t>0.996(0.008)</t>
+  </si>
+  <si>
+    <t>0.005(0.009)</t>
+  </si>
+  <si>
+    <t>0.422(0.708)</t>
+  </si>
+  <si>
+    <t>82.578(0.708)</t>
+  </si>
+  <si>
+    <t>0.312(0.467)</t>
+  </si>
+  <si>
+    <t>0.01(0.017)</t>
+  </si>
+  <si>
+    <t>25552.911(1288.633)</t>
+  </si>
+  <si>
+    <t>78.141(1.424)</t>
+  </si>
+  <si>
+    <t>83.281(2.848)</t>
+  </si>
+  <si>
+    <t>0.84(0.015)</t>
+  </si>
+  <si>
+    <t>0.895(0.031)</t>
+  </si>
+  <si>
+    <t>0.069(0.017)</t>
+  </si>
+  <si>
+    <t>5.766(1.411)</t>
+  </si>
+  <si>
+    <t>77.234(1.411)</t>
+  </si>
+  <si>
+    <t>0.129(0.03)</t>
+  </si>
+  <si>
+    <t>0.937(0.001)</t>
+  </si>
+  <si>
+    <t>26534.144(512.157)</t>
+  </si>
+  <si>
+    <t>80.922(1.172)</t>
+  </si>
+  <si>
+    <t>88.844(2.345)</t>
+  </si>
+  <si>
+    <t>0.87(0.013)</t>
+  </si>
+  <si>
+    <t>0.955(0.025)</t>
+  </si>
+  <si>
+    <t>0.072(0.022)</t>
+  </si>
+  <si>
+    <t>6.016(1.821)</t>
+  </si>
+  <si>
+    <t>76.984(1.821)</t>
+  </si>
+  <si>
+    <t>0.134(0.038)</t>
+  </si>
+  <si>
+    <t>26613.356(449.518)</t>
+  </si>
+  <si>
+    <t>81.5(2.031)</t>
+  </si>
+  <si>
+    <t>90.672(3.423)</t>
+  </si>
+  <si>
+    <t>0.876(0.022)</t>
+  </si>
+  <si>
+    <t>0.975(0.037)</t>
+  </si>
+  <si>
+    <t>0.08(0.03)</t>
+  </si>
+  <si>
+    <t>6.656(2.464)</t>
+  </si>
+  <si>
+    <t>1.344(1.263)</t>
+  </si>
+  <si>
+    <t>76.344(2.464)</t>
+  </si>
+  <si>
+    <t>1140.656(1.263)</t>
+  </si>
+  <si>
+    <t>0.849(0.118)</t>
+  </si>
+  <si>
+    <t>0.145(0.049)</t>
+  </si>
+  <si>
+    <t>0.937(0.002)</t>
+  </si>
+  <si>
+    <t>18279.672(11060.827)</t>
+  </si>
+  <si>
+    <t>80.688(1.798)</t>
+  </si>
+  <si>
+    <t>89.922(2.458)</t>
+  </si>
+  <si>
+    <t>0.868(0.019)</t>
+  </si>
+  <si>
+    <t>0.967(0.026)</t>
+  </si>
+  <si>
+    <t>0.076(0.028)</t>
+  </si>
+  <si>
+    <t>6.281(2.285)</t>
+  </si>
+  <si>
+    <t>0.25(0.436)</t>
+  </si>
+  <si>
+    <t>76.719(2.285)</t>
+  </si>
+  <si>
+    <t>1141.75(0.436)</t>
+  </si>
+  <si>
+    <t>0.959(0.076)</t>
+  </si>
+  <si>
+    <t>0.139(0.048)</t>
+  </si>
+  <si>
+    <t>40511.368(37458.352)</t>
+  </si>
+  <si>
+    <t>68.625(4.662)</t>
+  </si>
+  <si>
+    <t>75.328(5.228)</t>
+  </si>
+  <si>
+    <t>0.738(0.05)</t>
+  </si>
+  <si>
+    <t>0.81(0.056)</t>
+  </si>
+  <si>
+    <t>0.352(0.04)</t>
+  </si>
+  <si>
+    <t>29.203(3.334)</t>
+  </si>
+  <si>
+    <t>2.641(1.684)</t>
+  </si>
+  <si>
+    <t>53.797(3.334)</t>
+  </si>
+  <si>
+    <t>1139.359(1.684)</t>
+  </si>
+  <si>
+    <t>0.917(0.052)</t>
+  </si>
+  <si>
+    <t>0.508(0.047)</t>
+  </si>
+  <si>
+    <t>0.954(0.003)</t>
+  </si>
+  <si>
+    <t>23936.158(12166.788)</t>
+  </si>
+  <si>
+    <t>73.109(3.372)</t>
+  </si>
+  <si>
+    <t>79.719(4.658)</t>
+  </si>
+  <si>
+    <t>0.786(0.036)</t>
+  </si>
+  <si>
+    <t>0.857(0.05)</t>
+  </si>
+  <si>
+    <t>0.309(0.035)</t>
+  </si>
+  <si>
+    <t>25.688(2.9)</t>
+  </si>
+  <si>
+    <t>1.734(1.275)</t>
+  </si>
+  <si>
+    <t>57.312(2.9)</t>
+  </si>
+  <si>
+    <t>1140.266(1.275)</t>
+  </si>
+  <si>
+    <t>0.939(0.042)</t>
+  </si>
+  <si>
+    <t>0.464(0.04)</t>
+  </si>
+  <si>
+    <t>0.952(0.002)</t>
+  </si>
+  <si>
+    <t>39425.446(35960.184)</t>
+  </si>
+  <si>
+    <t>83.0(0.0)</t>
+  </si>
+  <si>
+    <t>93.0(0.0)</t>
+  </si>
+  <si>
+    <t>0.892(0.0)</t>
+  </si>
+  <si>
+    <t>0.932(0.0)</t>
+  </si>
+  <si>
+    <t>9114.824(2256.28)</t>
+  </si>
+  <si>
+    <t>7164.652(3832.243)</t>
+  </si>
+  <si>
+    <t>6172.676(4449.112)</t>
+  </si>
+  <si>
+    <t>7773.56(3140.376)</t>
   </si>
 </sst>
 </file>
@@ -2849,12 +3779,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC69"/>
+  <dimension ref="A1:AC97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AA66" sqref="AA66"/>
+      <selection pane="bottomLeft" activeCell="Y93" sqref="Y93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8732,6 +9662,2342 @@
       </c>
       <c r="AB69" s="2"/>
     </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="2">
+        <v>200</v>
+      </c>
+      <c r="E70" s="2">
+        <v>50</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="S70" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="U70" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA70" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="2">
+        <v>200</v>
+      </c>
+      <c r="E71" s="2">
+        <v>50</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H71" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S71" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="2">
+        <v>200</v>
+      </c>
+      <c r="E72" s="2">
+        <v>50</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S72" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="U72" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W72" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="2">
+        <v>200</v>
+      </c>
+      <c r="E73" s="2">
+        <v>50</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA73" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="2">
+        <v>200</v>
+      </c>
+      <c r="E74" s="2">
+        <v>50</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="S74" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="U74" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="V74" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="W74" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y74" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA74" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB74" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="2">
+        <v>200</v>
+      </c>
+      <c r="E75" s="2">
+        <v>50</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="S75" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="U75" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="V75" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="W75" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA75" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB75" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="2">
+        <v>200</v>
+      </c>
+      <c r="E76" s="2">
+        <v>50</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H76" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB76" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="2">
+        <v>200</v>
+      </c>
+      <c r="E77" s="2">
+        <v>50</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="S77" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="U77" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="V77" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA77" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB77" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="2">
+        <v>200</v>
+      </c>
+      <c r="E78" s="2">
+        <v>50</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="R78" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="V78" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="W78" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y78" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB78" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="2">
+        <v>200</v>
+      </c>
+      <c r="E79" s="2">
+        <v>50</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="R79" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="W79" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="X79" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y79" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA79" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB79" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="2">
+        <v>200</v>
+      </c>
+      <c r="E80" s="2">
+        <v>50</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y80" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="2">
+        <v>200</v>
+      </c>
+      <c r="E81" s="2">
+        <v>50</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="P81" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q81" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="V81" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="W81" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="X81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y81" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z81" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB81" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="2">
+        <v>200</v>
+      </c>
+      <c r="E82" s="2">
+        <v>50</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="T82" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="U82" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="W82" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="X82" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y82" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB82" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="2">
+        <v>200</v>
+      </c>
+      <c r="E83" s="2">
+        <v>50</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="P83" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="V83" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="W83" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="X83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y83" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA83" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB83" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="2">
+        <v>200</v>
+      </c>
+      <c r="E84" s="2">
+        <v>50</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="V84" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="W84" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y84" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB84" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="2">
+        <v>200</v>
+      </c>
+      <c r="E85" s="2">
+        <v>50</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB85" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" s="2">
+        <v>200</v>
+      </c>
+      <c r="E86" s="2">
+        <v>50</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H86" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="V86" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA86" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="2">
+        <v>200</v>
+      </c>
+      <c r="E87" s="2">
+        <v>50</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="V87" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA87" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="2">
+        <v>200</v>
+      </c>
+      <c r="E88" s="2">
+        <v>50</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA88" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="2">
+        <v>200</v>
+      </c>
+      <c r="E89" s="2">
+        <v>50</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="P89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R89" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="V89" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W89" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="X89" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA89" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="2">
+        <v>200</v>
+      </c>
+      <c r="E90" s="2">
+        <v>50</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y90" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA90" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="2">
+        <v>200</v>
+      </c>
+      <c r="E91" s="2">
+        <v>50</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="T91" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="V91" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="X91" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA91" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="2">
+        <v>200</v>
+      </c>
+      <c r="E92" s="2">
+        <v>50</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q92" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="T92" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="W92" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X92" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y92" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA92" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="2">
+        <v>200</v>
+      </c>
+      <c r="E93" s="2">
+        <v>50</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P93" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S93" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="T93" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="V93" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="W93" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="X93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y93" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA93" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="2">
+        <v>200</v>
+      </c>
+      <c r="E94" s="2">
+        <v>50</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V94" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W94" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X94" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y94" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="2">
+        <v>200</v>
+      </c>
+      <c r="E95" s="2">
+        <v>50</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="2">
+        <v>200</v>
+      </c>
+      <c r="E96" s="2">
+        <v>50</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H96" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="2">
+        <v>200</v>
+      </c>
+      <c r="E97" s="2">
+        <v>50</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="2">
+        <v>8888</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="W97" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X97" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y97" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA41">
     <sortCondition ref="E1:E41"/>
